--- a/biology/Zoologie/Chien-loup_tchécoslovaque/Chien-loup_tchécoslovaque.xlsx
+++ b/biology/Zoologie/Chien-loup_tchécoslovaque/Chien-loup_tchécoslovaque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chien-loup_tch%C3%A9coslovaque</t>
+          <t>Chien-loup_tchécoslovaque</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le chien-loup tchécoslovaque (CLT) (tchèque : Československý vlčák, slovaque : Československý vlčiak) est une race de chiens-loups domestiques d'origine tchécoslovaque issue à l'origine d'un croisement entre un chien berger allemand et une louve des Carpates.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chien-loup_tch%C3%A9coslovaque</t>
+          <t>Chien-loup_tchécoslovaque</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chien-loup tchécoslovaque est une race relativement récente, créée en Tchécoslovaquie en 1955 en croisant des bergers allemands et des louves des Carpates.
 L'expérimentation menée par les militaires tchécoslovaques fut poursuivie jusqu'en 1965 et démontra qu'il était possible d'obtenir une descendance apte à l'élevage tant par le croisement loup-chienne que par le croisement chien-louve.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chien-loup_tch%C3%A9coslovaque</t>
+          <t>Chien-loup_tchécoslovaque</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Appellation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La désignation officielle de la race du chien-loup tchécoslovaque étant assez longue, elle est fréquemment raccourcie de manière impropre en « chien-loup tchèque », voire parfois en « loup tchèque », au risque de créer une confusion avec le loup.
 </t>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chien-loup_tch%C3%A9coslovaque</t>
+          <t>Chien-loup_tchécoslovaque</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,9 +595,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">En France
-L'Arrêté du 19 mai 2000 soumettant à autorisation la détention de loups[1] impose une autorisation préfectorale pour la détention de loup ou d’hybrides entre chiens et loups dont l'ascendance récente comporte un loup. Le chien-loup tchécoslovaque étant reconnu comme une race de chien domestique du groupe 1 et de la section 1 chiens de berger et non comme un hybride, il n'est pas soumis à cette législation, sa détention est donc entièrement libre.
-Il ne faut pas non plus confondre le groupe 1 selon la FCI qui rassemble les chiens de berger et bouvier avec catégorie I chien dangereux (avec toutes les autorisations obligatoires). Le chien-loup tchécoslovaque étant dans le groupe 1 selon la nomenclature de la FCI (Standard no 332[2]), aucune mesure particulière telle la muselière ou la tenue en laisse dans les lieux publics n'est obligatoire.
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Arrêté du 19 mai 2000 soumettant à autorisation la détention de loups impose une autorisation préfectorale pour la détention de loup ou d’hybrides entre chiens et loups dont l'ascendance récente comporte un loup. Le chien-loup tchécoslovaque étant reconnu comme une race de chien domestique du groupe 1 et de la section 1 chiens de berger et non comme un hybride, il n'est pas soumis à cette législation, sa détention est donc entièrement libre.
+Il ne faut pas non plus confondre le groupe 1 selon la FCI qui rassemble les chiens de berger et bouvier avec catégorie I chien dangereux (avec toutes les autorisations obligatoires). Le chien-loup tchécoslovaque étant dans le groupe 1 selon la nomenclature de la FCI (Standard no 332), aucune mesure particulière telle la muselière ou la tenue en laisse dans les lieux publics n'est obligatoire.
 </t>
         </is>
       </c>
@@ -592,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chien-loup_tch%C3%A9coslovaque</t>
+          <t>Chien-loup_tchécoslovaque</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,11 +633,51 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Taille et poids
-Les mâles mesurent au minimum 65 cm au garrot, contre 60 cm pour les femelles.
+          <t>Taille et poids</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent au minimum 65 cm au garrot, contre 60 cm pour les femelles.
 À l'âge adulte, son poids est d'environ 35kg pour les mâles, et 27kg pour les femelles.
-Robe et pelage
-C’est un chien au poil mi-long gris/jaune à gris/argenté, avec un masque caractéristique de couleur plus claire[3] et des poils clairs à la base du cou et au poitrail. Le poil est droit, couché sur le corps. Il devient plus fourni l’hiver pour mieux résister aux températures froides.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chien-loup_tchécoslovaque</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chien-loup_tch%C3%A9coslovaque</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Caractéristiques physiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Robe et pelage</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C’est un chien au poil mi-long gris/jaune à gris/argenté, avec un masque caractéristique de couleur plus claire et des poils clairs à la base du cou et au poitrail. Le poil est droit, couché sur le corps. Il devient plus fourni l’hiver pour mieux résister aux températures froides.
 </t>
         </is>
       </c>
